--- a/outputs/p__Methanobacteriota.xlsx
+++ b/outputs/p__Methanobacteriota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB1D7C-A6AB-5745-8EEC-FD1681BFE017}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C22997F-622D-A947-9622-52CE0BDA07C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{A12F5E32-8FC8-4941-8891-22E891B896BA}"/>
+    <workbookView xWindow="5760" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{A12F5E32-8FC8-4941-8891-22E891B896BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Row</t>
   </si>
@@ -111,7 +111,10 @@
     <t>RUG823.fasta</t>
   </si>
   <si>
-    <t>prediction</t>
+    <t>c__Methanobacteri</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,199 +484,199 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/p__Methanobacteriota.xlsx
+++ b/outputs/p__Methanobacteriota.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C22997F-622D-A947-9622-52CE0BDA07C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214C1A70-6C61-2B44-B058-F534F0C0B766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{A12F5E32-8FC8-4941-8891-22E891B896BA}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15460" xr2:uid="{A12F5E32-8FC8-4941-8891-22E891B896BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="p__Methanobacteriota_pred-t-p" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
